--- a/doc/2024-2025-it.xlsx
+++ b/doc/2024-2025-it.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Не ходят" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$N$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Интернет-Т'!$A$1:$O$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -56,6 +56,9 @@
     <t xml:space="preserve">22-02</t>
   </si>
   <si>
+    <t xml:space="preserve">15-03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проект. Технологии</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">5040102 / 40101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/artemiigoldberg/it-2024-2</t>
   </si>
   <si>
     <t xml:space="preserve">Гордейко Никита</t>
@@ -693,14 +699,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB1048576"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,14 +715,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="63.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="49.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="17.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="2" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.93"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,7 +757,7 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -762,7 +769,9 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -776,22 +785,23 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>1</v>
@@ -808,22 +818,25 @@
       <c r="J2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" s="9"/>
-      <c r="M2" s="9" t="n">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>8</v>
@@ -834,20 +847,21 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>3</v>
@@ -858,25 +872,28 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="n">
@@ -884,22 +901,23 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="9" t="n">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>8</v>
@@ -910,20 +928,21 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>9</v>
@@ -938,22 +957,23 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -966,20 +986,21 @@
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>1</v>
@@ -994,20 +1015,21 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>7</v>
@@ -1020,20 +1042,21 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="9" t="n">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>9</v>
@@ -1048,22 +1071,23 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1076,28 +1100,31 @@
       <c r="J12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="L12" s="9"/>
-      <c r="M12" s="9" t="n">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1110,32 +1137,35 @@
       <c r="J13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="9" t="n">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>1</v>
@@ -1146,28 +1176,31 @@
       <c r="J14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" s="9"/>
-      <c r="M14" s="9" t="n">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>36</v>
+      <c r="E15" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1178,22 +1211,23 @@
       <c r="J15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="9" t="n">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>3</v>
@@ -1206,28 +1240,29 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9" t="n">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1240,22 +1275,23 @@
       <c r="J17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="9" t="n">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>1</v>
@@ -1268,28 +1304,29 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="9" t="n">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1300,22 +1337,23 @@
         <v>1</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="9" t="n">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>4</v>
@@ -1326,52 +1364,56 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="N21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>5</v>
@@ -1382,26 +1424,27 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1411,20 +1454,25 @@
       <c r="I23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="9" t="n">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,12 +1528,12 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -1493,13 +1541,14 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1507,13 +1556,14 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1521,13 +1571,14 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="13" t="n">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1535,13 +1586,14 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1549,13 +1601,14 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="13" t="n">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1563,13 +1616,14 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="13" t="n">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1577,13 +1631,14 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="13" t="n">
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1591,13 +1646,14 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="13" t="n">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1605,13 +1661,14 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="13" t="n">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1619,13 +1676,14 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="13" t="n">
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1633,13 +1691,14 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="13" t="n">
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1647,13 +1706,14 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="13" t="n">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1661,13 +1721,14 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="13" t="n">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1675,13 +1736,14 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="13" t="n">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1689,13 +1751,14 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1703,13 +1766,14 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="13" t="n">
         <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,7 +1789,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,7 +1805,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +1813,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,17 +1831,18 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:N23"/>
+  <autoFilter ref="A1:O23"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://github.com/mshnschnko/it-2024-2"/>
-    <hyperlink ref="E8" r:id="rId2" display="https://github.com/krzhld/it-2024-2/tree/develop"/>
-    <hyperlink ref="E12" r:id="rId3" display="https://github.com/KNS121/it-2024-2/"/>
-    <hyperlink ref="E13" r:id="rId4" display="https://github.com/IgorKochetkov-alg/To-Do-List"/>
-    <hyperlink ref="E14" r:id="rId5" display="https://github.com/krasnikovra/it-2024-2/tree/homework/15-02-pages-layout"/>
-    <hyperlink ref="E15" r:id="rId6" display="https://github.com/EBAA-sketch/it-2024-2"/>
-    <hyperlink ref="E17" r:id="rId7" display="https://github.com/Kseniya327/internet_tech"/>
-    <hyperlink ref="E21" r:id="rId8" display="https://github.com/denisstrizhkin/it-2024-2"/>
-    <hyperlink ref="E23" r:id="rId9" display="https://github.com/Timofey-Chibyshev/it-2024-2/tree/main"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://github.com/artemiigoldberg/it-2024-2"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://github.com/krzhld/it-2024-2/tree/develop"/>
+    <hyperlink ref="E12" r:id="rId4" display="https://github.com/KNS121/it-2024-2/"/>
+    <hyperlink ref="E13" r:id="rId5" display="https://github.com/IgorKochetkov-alg/To-Do-List"/>
+    <hyperlink ref="E14" r:id="rId6" display="https://github.com/krasnikovra/it-2024-2/tree/homework/15-02-pages-layout"/>
+    <hyperlink ref="E15" r:id="rId7" display="https://github.com/EBAA-sketch/it-2024-2"/>
+    <hyperlink ref="E17" r:id="rId8" display="https://github.com/Kseniya327/internet_tech"/>
+    <hyperlink ref="E21" r:id="rId9" display="https://github.com/denisstrizhkin/it-2024-2"/>
+    <hyperlink ref="E23" r:id="rId10" display="https://github.com/Timofey-Chibyshev/it-2024-2/tree/main"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1786,7 +1851,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1797,7 +1862,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1809,58 +1874,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
